--- a/data/survival/Westcott/B_survival_06252024.xlsx
+++ b/data/survival/Westcott/B_survival_06252024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8449178-7215-2349-8DD4-553BF3A5A1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12D5ACF-76E4-A845-8475-70814EC6753B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="24220" windowHeight="15940" xr2:uid="{7A836C96-E6EA-0848-A55C-A0E68A5DC039}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>bag_num</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>1 empty shell</t>
+  </si>
+  <si>
+    <t>surveyor</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Megan</t>
   </si>
 </sst>
 </file>
@@ -437,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58A56FD-1945-C144-A1D1-1595CC2651BC}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,10 +471,13 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,8 +490,11 @@
       <c r="D2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,10 +508,13 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -506,8 +527,11 @@
       <c r="D4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -521,10 +545,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -538,10 +565,13 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -555,10 +585,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -572,10 +605,13 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -588,8 +624,11 @@
       <c r="D9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -603,10 +642,13 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -618,6 +660,9 @@
       </c>
       <c r="D11">
         <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
